--- a/HAT Test Output Reference.xlsx
+++ b/HAT Test Output Reference.xlsx
@@ -475,10 +475,8 @@
           <t>Run Time (hr)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>101.453</t>
-        </is>
+      <c r="B4" t="n">
+        <v>101.453</v>
       </c>
     </row>
     <row r="5">
@@ -499,10 +497,8 @@
           <t>Total Cycle Interruptions</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
+      <c r="B6" t="n">
+        <v>314</v>
       </c>
     </row>
     <row r="7">

--- a/HAT Test Output Reference.xlsx
+++ b/HAT Test Output Reference.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,80 +494,104 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Total Cycle Interruptions</t>
+          <t>Part Interference</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>314</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Part Interference</t>
+          <t>Hopper Full</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>186</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Hopper Full(Metal In Conveyor)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>73</v>
-      </c>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Excess Cycle Time</t>
+          <t>Total Cycle Interruptions</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Timeout Moving To Set Position</t>
+          <t>Part Interference</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Timeout Moving to Pull Position</t>
+          <t>Hopper Full(Metal In Conveyor)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lost Set Position</t>
+          <t>Excess Cycle Time</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Timeout Moving To Set Position</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Timeout Moving to Pull Position</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Lost Set Position</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Excess Injection</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B16" t="n">
         <v>1</v>
       </c>
     </row>
